--- a/Server/PlanTo/config/D道具.xlsx
+++ b/Server/PlanTo/config/D道具.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,46 +206,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,10 +236,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,23 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,32 +321,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,85 +352,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,97 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,26 +546,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,7 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,18 +585,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Server/PlanTo/config/D道具.xlsx
+++ b/Server/PlanTo/config/D道具.xlsx
@@ -174,13 +174,14 @@
     <t>黄金赛门票</t>
   </si>
   <si>
+    <t>1_0_300</t>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>花生3000</t>
-  </si>
-  <si>
-    <t>1_0_300</t>
-  </si>
-  <si>
-    <t>包子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +539,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,7 +622,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -731,7 +732,7 @@
         <v>6001</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -740,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Server/PlanTo/config/D道具.xlsx
+++ b/Server/PlanTo/config/D道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>名称</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>花生3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗哥（七天）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,50 +654,50 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6">
+      <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -701,46 +705,63 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5001</v>
+        <v>4004</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>5001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>6001</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Server/PlanTo/config/D道具.xlsx
+++ b/Server/PlanTo/config/D道具.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Server/PlanTo/config/D道具.xlsx
+++ b/Server/PlanTo/config/D道具.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bag" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>名称</t>
   </si>
@@ -120,36 +120,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>lx</t>
-  </si>
-  <si>
-    <t>pz</t>
-  </si>
-  <si>
-    <t>sylx</t>
-  </si>
-  <si>
-    <t>syxg</t>
-  </si>
-  <si>
-    <t>yxq</t>
-  </si>
-  <si>
-    <t>djsx</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>gnlj</t>
-  </si>
-  <si>
     <t>10元话费</t>
   </si>
   <si>
@@ -159,15 +129,9 @@
     <t>记牌器/天</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>记牌器/次</t>
   </si>
   <si>
-    <t>2_15</t>
-  </si>
-  <si>
     <t>得分加成</t>
   </si>
   <si>
@@ -186,6 +150,74 @@
   </si>
   <si>
     <t>狗哥（七天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_arr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>useType</t>
+  </si>
+  <si>
+    <t>userEfft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>shortDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,21 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="8" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="50.625" customWidth="1"/>
+    <col min="6" max="9" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -570,199 +602,240 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3001</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
+      <c r="C6">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="F9">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>5001</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>6001</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
